--- a/Диаграммы Excel.xlsx
+++ b/Диаграммы Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи" sheetId="1" r:id="rId1"/>
+    <sheet name="Статистика" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Цена в долларах за тонну</t>
   </si>
@@ -25,24 +26,6 @@
     <t>Объем продаж</t>
   </si>
   <si>
-    <t>Пошлина</t>
-  </si>
-  <si>
-    <t>100 т</t>
-  </si>
-  <si>
-    <t>130 т</t>
-  </si>
-  <si>
-    <t>250 т</t>
-  </si>
-  <si>
-    <t>80 т</t>
-  </si>
-  <si>
-    <t>120 т</t>
-  </si>
-  <si>
     <t>Нефть</t>
   </si>
   <si>
@@ -59,17 +42,135 @@
   </si>
   <si>
     <t>Курс: 1$</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Таможенная пошлина</t>
+  </si>
+  <si>
+    <t>Рост</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="[$$-C09]#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="167" formatCode="@\ \т"/>
+    <numFmt numFmtId="168" formatCode="[$$-C09]#,##0"/>
+    <numFmt numFmtId="169" formatCode="@\ \к\г"/>
+    <numFmt numFmtId="171" formatCode="@\ \с\м"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -125,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -137,19 +238,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -158,6 +260,714 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Относительные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> объемы продаж</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10687489063867017"/>
+          <c:y val="5.9976931949250314E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7122822333775445E-2"/>
+                  <c:y val="1.4710877403300368E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8106486689163854E-2"/>
+                  <c:y val="-1.9871945072609868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3259517933392673E-3"/>
+                  <c:y val="1.0224777266163535E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.928501474629105E-2"/>
+                  <c:y val="1.7254901960784313E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3301770114556594E-4"/>
+                  <c:y val="7.4170140497143745E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Продажи!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Нефть</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Газ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Лес</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Сталь</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Алюминий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Продажи!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-C09]#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Таможенная пошлина</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Продажи!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Нефть</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Газ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Лес</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Сталь</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Алюминий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Продажи!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* "-"??\ [$₽-419]_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6348.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7649.5899999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14710.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5698.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4645.5000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="104955264"/>
+        <c:axId val="104793216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104955264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104793216"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104793216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="104955264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Относительные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> объемы продаж</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10687489063867017"/>
+          <c:y val="5.9976931949250349E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7122822333775445E-2"/>
+                  <c:y val="1.4710877403300369E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8106486689163854E-2"/>
+                  <c:y val="-1.9871945072609868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.325951793339269E-3"/>
+                  <c:y val="1.0224777266163543E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.928501474629105E-2"/>
+                  <c:y val="1.7254901960784313E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3301770114556626E-4"/>
+                  <c:y val="7.4170140497143771E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Продажи!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Нефть</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Газ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Лес</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Сталь</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Алюминий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Продажи!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-C09]#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Таможенная пошлина</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Продажи!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Нефть</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Газ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Лес</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Сталь</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Алюминий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Продажи!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* "-"??\ [$₽-419]_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6348.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7649.5899999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14710.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5698.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4645.5000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="95680000"/>
+        <c:axId val="95681536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95680000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95681536"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95681536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="95680000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,22 +1257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3">
         <v>30.97</v>
@@ -476,98 +1286,402 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
         <v>41</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <f>B4*$B$1</f>
         <v>1269.77</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11">
-        <f>B4*0.05</f>
-        <v>2.0500000000000003</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="9">
+        <f>IF(B4&lt;25,0.1*C4*D4,0.05*C4*D4)</f>
+        <v>6348.85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:C8" si="0">B5*$B$1</f>
         <v>1176.8599999999999</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E8" si="1">IF(B5&lt;25,0.1*C5*D5,0.05*C5*D5)</f>
+        <v>7649.5899999999992</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>588.42999999999995</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10">
-        <f t="shared" si="0"/>
-        <v>588.42999999999995</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>14710.75</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>712.31</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10">
-        <f t="shared" si="0"/>
-        <v>712.31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>5698.48</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>774.25</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
-        <v>774.25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>4645.5000000000009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4:D8" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14">
+        <f>(B2/A2)^2</f>
+        <v>0.11830094527161344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14">
+        <f t="shared" ref="C3:C22" si="0">(B3/A3)^2</f>
+        <v>0.12942444973230219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12691406250000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.16955017301038061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>9.2950624628197503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12755102040816327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1085121107266436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12456747404844293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>7.6435986159169564E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14686794076517626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15818698347107438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10591365848534715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="14">
+        <f>(B15/A15)^2</f>
+        <v>0.33231833910034597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8868494143219419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="0"/>
+        <v>9.336419753086421E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="0"/>
+        <v>9.9320477502295668E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14728999269539811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11385449207723286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7407602742504762E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>8.0099679601281587E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A6 A7:A22 B2:B3 B4:B22" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>